--- a/Modelos em Python/0 dia a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/0 dia a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6048265519931112</v>
+        <v>0.610147119974322</v>
       </c>
       <c r="C11" t="n">
-        <v>1.955308081517726</v>
+        <v>1.977329337083904</v>
       </c>
       <c r="D11" t="n">
-        <v>3.451748075148939</v>
+        <v>3.320779450871989</v>
       </c>
     </row>
     <row r="12">
